--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/SISTRANS_proyecto/enunciados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5ECEFBC-81E5-4716-88D5-F2282824185C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E33733-05E3-4E58-8B19-B3B0463A153D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="172">
   <si>
     <t>Relación</t>
   </si>
@@ -375,9 +375,6 @@
     <t>FK Estilo.idEstilo</t>
   </si>
   <si>
-    <t>FK HorarioServicio.idHorarioServicio</t>
-  </si>
-  <si>
     <t>CartaProductos</t>
   </si>
   <si>
@@ -538,6 +535,12 @@
   </si>
   <si>
     <t>contraseña</t>
+  </si>
+  <si>
+    <t>descripción</t>
+  </si>
+  <si>
+    <t>profundidad</t>
   </si>
 </sst>
 </file>
@@ -968,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3460,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -8451,7 +8454,7 @@
     <row r="43" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -9513,11 +9516,9 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -9690,15 +9691,15 @@
       <c r="C50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -9868,15 +9869,15 @@
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -10046,15 +10047,15 @@
       <c r="C52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -10753,7 +10754,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
@@ -12675,7 +12676,7 @@
         <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>16</v>
@@ -15168,12 +15169,12 @@
         <v>112</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
-      <c r="M81" s="10"/>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -15330,9 +15331,8 @@
       <c r="FK81" s="4"/>
       <c r="FL81" s="4"/>
       <c r="FM81" s="4"/>
-      <c r="FN81" s="4"/>
     </row>
-    <row r="82" spans="1:170" ht="66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
@@ -15364,9 +15364,7 @@
       <c r="K82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="L82" s="2"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -15524,7 +15522,6 @@
       <c r="FK82" s="4"/>
       <c r="FL82" s="4"/>
       <c r="FM82" s="4"/>
-      <c r="FN82" s="4"/>
     </row>
     <row r="83" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
@@ -15559,7 +15556,7 @@
         <v>18</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -15718,7 +15715,6 @@
       <c r="FK83" s="4"/>
       <c r="FL83" s="4"/>
       <c r="FM83" s="4"/>
-      <c r="FN83" s="4"/>
     </row>
     <row r="84" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
@@ -16067,7 +16063,7 @@
     <row r="86" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -16245,24 +16241,24 @@
     <row r="87" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>42</v>
@@ -17144,7 +17140,7 @@
     <row r="92" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -17156,7 +17152,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -17322,7 +17318,7 @@
     <row r="93" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>26</v>
@@ -17335,32 +17331,32 @@
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L93" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M93" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M93" s="6" t="s">
+      <c r="N93" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N93" s="6" t="s">
+      <c r="O93" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O93" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="P93" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q93" s="10"/>
       <c r="R93" s="4"/>
@@ -17550,7 +17546,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -17917,7 +17913,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
@@ -18250,7 +18246,7 @@
     <row r="98" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -18267,7 +18263,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
@@ -18428,20 +18424,20 @@
     <row r="99" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="4"/>
@@ -18623,7 +18619,7 @@
         <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -19318,22 +19314,22 @@
     <row r="104" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -19498,31 +19494,31 @@
     <row r="105" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="6" t="s">
         <v>104</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="4"/>
@@ -19689,18 +19685,18 @@
         <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>93</v>
@@ -19710,7 +19706,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="4"/>
@@ -20406,22 +20402,22 @@
     <row r="110" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="12"/>
@@ -20600,7 +20596,7 @@
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>104</v>
@@ -20774,31 +20770,31 @@
     <row r="112" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="4"/>
@@ -21494,22 +21490,22 @@
     <row r="116" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="12"/>
@@ -21674,31 +21670,31 @@
     <row r="117" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="6" t="s">
         <v>66</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="4"/>
@@ -21862,31 +21858,31 @@
     <row r="118" spans="1:170" ht="66" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E33733-05E3-4E58-8B19-B3B0463A153D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF365D6-CCEC-4E9C-91D2-8D82FDE11A48}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="173">
   <si>
     <t>Relación</t>
   </si>
@@ -542,6 +542,9 @@
   <si>
     <t>profundidad</t>
   </si>
+  <si>
+    <t>NN,FK Servicio.idServicio</t>
+  </si>
 </sst>
 </file>
 
@@ -971,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5611,12 +5614,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -5773,7 +5774,6 @@
       <c r="FK27" s="4"/>
       <c r="FL27" s="4"/>
       <c r="FM27" s="4"/>
-      <c r="FN27" s="4"/>
     </row>
     <row r="28" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -5799,11 +5799,9 @@
         <v>17</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -5961,7 +5959,6 @@
       <c r="FK28" s="4"/>
       <c r="FL28" s="4"/>
       <c r="FM28" s="4"/>
-      <c r="FN28" s="4"/>
     </row>
     <row r="29" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -5995,9 +5992,7 @@
       <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -6155,7 +6150,6 @@
       <c r="FK29" s="4"/>
       <c r="FL29" s="4"/>
       <c r="FM29" s="4"/>
-      <c r="FN29" s="4"/>
     </row>
     <row r="30" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -11457,10 +11451,9 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -11633,11 +11626,12 @@
       <c r="D61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -11797,8 +11791,8 @@
       <c r="FK61" s="4"/>
       <c r="FL61" s="4"/>
     </row>
-    <row r="62" spans="1:170" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+    <row r="62" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
       <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
@@ -11808,11 +11802,12 @@
       <c r="D62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -11983,11 +11978,12 @@
       <c r="D63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF365D6-CCEC-4E9C-91D2-8D82FDE11A48}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1095CE-28B6-49C2-9FB1-1486B7971A8A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="173">
   <si>
     <t>Relación</t>
   </si>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5616,7 +5616,9 @@
       <c r="K27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -5801,7 +5803,9 @@
       <c r="K28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -5992,7 +5996,9 @@
       <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1095CE-28B6-49C2-9FB1-1486B7971A8A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04004BC0-24B3-4B8F-AA4B-4A83F63C1C62}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="174">
   <si>
     <t>Relación</t>
   </si>
@@ -545,6 +545,9 @@
   <si>
     <t>NN,FK Servicio.idServicio</t>
   </si>
+  <si>
+    <t>NN,FK Cuenta.idCuenta</t>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +586,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,12 +622,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -655,7 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,8 +684,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -974,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2558,7 +2561,6 @@
       <c r="FK9" s="4"/>
       <c r="FL9" s="4"/>
       <c r="FM9" s="4"/>
-      <c r="FN9" s="4"/>
     </row>
     <row r="10" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -2572,7 +2574,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2736,7 +2738,6 @@
       <c r="FK10" s="4"/>
       <c r="FL10" s="4"/>
       <c r="FM10" s="4"/>
-      <c r="FN10" s="4"/>
     </row>
     <row r="11" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -2916,7 +2917,6 @@
       <c r="FK11" s="4"/>
       <c r="FL11" s="4"/>
       <c r="FM11" s="4"/>
-      <c r="FN11" s="4"/>
     </row>
     <row r="12" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -6520,8 +6520,9 @@
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -6702,8 +6703,9 @@
       <c r="F33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -6884,8 +6886,9 @@
       <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04004BC0-24B3-4B8F-AA4B-4A83F63C1C62}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1AA6F44-C11B-4A73-92AB-62EE5C08298C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="175">
   <si>
     <t>Relación</t>
   </si>
@@ -548,6 +548,9 @@
   <si>
     <t>NN,FK Cuenta.idCuenta</t>
   </si>
+  <si>
+    <t>ConsumoProducto</t>
+  </si>
 </sst>
 </file>
 
@@ -652,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -977,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15543,7 +15549,7 @@
         <v>18</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>18</v>
@@ -19525,7 +19531,7 @@
       <c r="L105" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M105" s="10"/>
+      <c r="M105" s="16"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -19713,7 +19719,7 @@
       <c r="L106" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="10"/>
+      <c r="M106" s="16"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -19901,7 +19907,7 @@
       <c r="L107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M107" s="10"/>
+      <c r="M107" s="16"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -20613,7 +20619,7 @@
       <c r="L111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M111" s="10"/>
+      <c r="M111" s="16"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -20801,7 +20807,7 @@
       <c r="L112" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M112" s="10"/>
+      <c r="M112" s="16"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -20989,7 +20995,7 @@
       <c r="L113" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M113" s="10"/>
+      <c r="M113" s="16"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -21701,7 +21707,7 @@
       <c r="L117" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M117" s="10"/>
+      <c r="M117" s="16"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -21889,7 +21895,7 @@
       <c r="L118" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M118" s="10"/>
+      <c r="M118" s="16"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -22077,7 +22083,7 @@
       <c r="L119" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M119" s="10"/>
+      <c r="M119" s="16"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -22580,9 +22586,11 @@
       <c r="FM121" s="4"/>
       <c r="FN121" s="4"/>
     </row>
-    <row r="122" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -22754,8 +22762,12 @@
     </row>
     <row r="123" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="B123" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -22924,10 +22936,14 @@
       <c r="FM123" s="4"/>
       <c r="FN123" s="4"/>
     </row>
-    <row r="124" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="B124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -23098,8 +23114,12 @@
     </row>
     <row r="125" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1AA6F44-C11B-4A73-92AB-62EE5C08298C}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68FFC82-E685-4EC4-AEB0-F5A1D490C8B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="189">
   <si>
     <t>Relación</t>
   </si>
@@ -551,6 +551,48 @@
   <si>
     <t>ConsumoProducto</t>
   </si>
+  <si>
+    <t>Convención</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaInicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaFinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> capacidadActual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> capacidadMaxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idConvención</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idOferta</t>
+  </si>
+  <si>
+    <t>PlanCobro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idPLanCobro</t>
+  </si>
 </sst>
 </file>
 
@@ -983,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" activeCellId="2" sqref="L46:N46 M45:N45 L43:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2224,16 +2266,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -2403,17 +2436,7 @@
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2564,9 +2587,6 @@
       <c r="FH9" s="4"/>
       <c r="FI9" s="4"/>
       <c r="FJ9" s="4"/>
-      <c r="FK9" s="4"/>
-      <c r="FL9" s="4"/>
-      <c r="FM9" s="4"/>
     </row>
     <row r="10" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -2580,17 +2600,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2741,9 +2751,6 @@
       <c r="FH10" s="4"/>
       <c r="FI10" s="4"/>
       <c r="FJ10" s="4"/>
-      <c r="FK10" s="4"/>
-      <c r="FL10" s="4"/>
-      <c r="FM10" s="4"/>
     </row>
     <row r="11" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -2759,17 +2766,7 @@
       <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2920,9 +2917,6 @@
       <c r="FH11" s="4"/>
       <c r="FI11" s="4"/>
       <c r="FJ11" s="4"/>
-      <c r="FK11" s="4"/>
-      <c r="FL11" s="4"/>
-      <c r="FM11" s="4"/>
     </row>
     <row r="12" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -3093,8 +3087,6 @@
       <c r="FJ12" s="4"/>
       <c r="FK12" s="4"/>
       <c r="FL12" s="4"/>
-      <c r="FM12" s="4"/>
-      <c r="FN12" s="4"/>
     </row>
     <row r="13" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -3265,8 +3257,6 @@
       <c r="FJ13" s="4"/>
       <c r="FK13" s="4"/>
       <c r="FL13" s="4"/>
-      <c r="FM13" s="4"/>
-      <c r="FN13" s="4"/>
     </row>
     <row r="14" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -6530,11 +6520,12 @@
         <v>29</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -6713,12 +6704,24 @@
         <v>173</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="J33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -6896,12 +6899,24 @@
         <v>18</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -7068,12 +7083,24 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="J35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -7594,13 +7621,12 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
@@ -7774,13 +7800,15 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="J39" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -7934,7 +7962,6 @@
       <c r="FK39" s="4"/>
       <c r="FL39" s="4"/>
       <c r="FM39" s="4"/>
-      <c r="FN39" s="4"/>
     </row>
     <row r="40" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
@@ -7954,13 +7981,15 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -8114,7 +8143,6 @@
       <c r="FK40" s="4"/>
       <c r="FL40" s="4"/>
       <c r="FM40" s="4"/>
-      <c r="FN40" s="4"/>
     </row>
     <row r="41" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
@@ -8126,13 +8154,15 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="J41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -8286,7 +8316,6 @@
       <c r="FK41" s="4"/>
       <c r="FL41" s="4"/>
       <c r="FM41" s="4"/>
-      <c r="FN41" s="4"/>
     </row>
     <row r="42" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
@@ -8476,7 +8505,9 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -8664,9 +8695,15 @@
         <v>71</v>
       </c>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="L44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -8850,9 +8887,15 @@
         <v>47</v>
       </c>
       <c r="K45" s="10"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="L45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -9031,9 +9074,15 @@
         <v>18</v>
       </c>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="L46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68FFC82-E685-4EC4-AEB0-F5A1D490C8B0}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA665328-34E5-4B83-AB43-8F3DB9893E29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +667,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -697,7 +703,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +745,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" activeCellId="2" sqref="L46:N46 M45:N45 L43:N44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6520,7 +6529,7 @@
         <v>29</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="17" t="s">
         <v>175</v>
       </c>
       <c r="K32" s="4"/>
@@ -7621,7 +7630,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="17" t="s">
         <v>182</v>
       </c>
       <c r="K38" s="4"/>
@@ -8505,7 +8514,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="17" t="s">
         <v>186</v>
       </c>
       <c r="M43" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.molinam\OneDrive - Universidad de los Andes\Documentos\GitHub\D-11\SISTRANS-PROYECTO\enunciados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{663AA640-F4F0-478B-AA5F-F492E541B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA665328-34E5-4B83-AB43-8F3DB9893E29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9B837-76C7-49EA-8C29-3120AFC43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="204">
   <si>
     <t>Relación</t>
   </si>
@@ -593,6 +593,84 @@
   <si>
     <t xml:space="preserve"> idPLanCobro</t>
   </si>
+  <si>
+    <t>ConvencionReserva</t>
+  </si>
+  <si>
+    <t>PK,FK Reserva.idReserva</t>
+  </si>
+  <si>
+    <t>PK,FK Convencion.idConvencion</t>
+  </si>
+  <si>
+    <t>reserva</t>
+  </si>
+  <si>
+    <t>NN,FK Reserva.idReserva</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>habitacion</t>
+    </r>
+  </si>
+  <si>
+    <t>oferta</t>
+  </si>
+  <si>
+    <t>FK, Oferta.idOferta</t>
+  </si>
+  <si>
+    <t>convencion</t>
+  </si>
+  <si>
+    <t>FK, Convencion.idConvencion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>idConvención</t>
+    </r>
+  </si>
+  <si>
+    <t>FK Convencion.idConvencion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>idPLanCobro</t>
+    </r>
+  </si>
+  <si>
+    <t>FK PlanConsumo.idPlanConsumo</t>
+  </si>
+  <si>
+    <t>FK PlanCobro.idPlanCobro</t>
+  </si>
 </sst>
 </file>
 
@@ -703,7 +781,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +827,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1034,11 +1125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="195" width="13.85546875" style="1" customWidth="1"/>
     <col min="196" max="16384" width="8.7109375" style="1"/>
@@ -3473,7 +3564,9 @@
       <c r="K15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3663,7 +3756,9 @@
       <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -3855,7 +3950,9 @@
       <c r="K17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -6528,6 +6625,9 @@
       <c r="G32" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="H32" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="17" t="s">
         <v>175</v>
@@ -6712,6 +6812,9 @@
       <c r="G33" s="13" t="s">
         <v>173</v>
       </c>
+      <c r="H33" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="6" t="s">
         <v>180</v>
@@ -6731,10 +6834,18 @@
       <c r="O33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="P33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -6887,7 +6998,7 @@
       <c r="FM33" s="4"/>
       <c r="FN33" s="4"/>
     </row>
-    <row r="34" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="8" t="s">
         <v>18</v>
@@ -6907,6 +7018,7 @@
       <c r="G34" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="4"/>
       <c r="J34" s="2" t="s">
         <v>15</v>
@@ -6926,10 +7038,18 @@
       <c r="O34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="P34" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -7110,10 +7230,18 @@
       <c r="O35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="P35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -7818,6 +7946,9 @@
       <c r="L39" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="M39" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -7972,7 +8103,7 @@
       <c r="FL39" s="4"/>
       <c r="FM39" s="4"/>
     </row>
-    <row r="40" spans="1:170" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>18</v>
@@ -7998,6 +8129,9 @@
       </c>
       <c r="L40" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -8171,6 +8305,9 @@
       </c>
       <c r="L41" s="8" t="s">
         <v>181</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -15243,8 +15380,12 @@
       <c r="L81" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="M81" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -15434,8 +15575,12 @@
         <v>115</v>
       </c>
       <c r="L82" s="2"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="M82" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -15627,8 +15772,12 @@
       <c r="L83" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
+      <c r="M83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
@@ -21924,7 +22073,7 @@
       <c r="FM117" s="4"/>
       <c r="FN117" s="4"/>
     </row>
-    <row r="118" spans="1:170" ht="66" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="2" t="s">
         <v>144</v>
@@ -22651,9 +22800,11 @@
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -22827,9 +22978,13 @@
         <v>143</v>
       </c>
       <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="E123" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="10"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -23003,9 +23158,13 @@
         <v>93</v>
       </c>
       <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="E124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G124" s="10"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -23179,9 +23338,13 @@
         <v>18</v>
       </c>
       <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="E125" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="10"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.molinam\OneDrive - Universidad de los Andes\Documentos\GitHub\D-11\SISTRANS-PROYECTO\enunciados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9B837-76C7-49EA-8C29-3120AFC43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2CD9B837-76C7-49EA-8C29-3120AFC43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A26A6E-C2D6-403B-A8C8-F7A67B97BBF6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="206">
   <si>
     <t>Relación</t>
   </si>
@@ -671,6 +672,12 @@
   <si>
     <t>FK PlanCobro.idPlanCobro</t>
   </si>
+  <si>
+    <t>ocupado</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
 </sst>
 </file>
 
@@ -828,7 +835,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1125,11 +1134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="195" width="13.85546875" style="1" customWidth="1"/>
     <col min="196" max="16384" width="8.7109375" style="1"/>
@@ -3564,7 +3573,7 @@
       <c r="K15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>199</v>
       </c>
       <c r="M15" s="4"/>
@@ -6625,17 +6634,18 @@
       <c r="G32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="17" t="s">
+      <c r="I32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -6812,41 +6822,42 @@
       <c r="G33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="Q33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Q33" s="22" t="s">
+      <c r="R33" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="22" t="s">
+      <c r="S33" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="21" t="s">
+      <c r="T33" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
@@ -7018,13 +7029,14 @@
       <c r="G34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="2" t="s">
-        <v>15</v>
+      <c r="H34" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>16</v>
@@ -7038,19 +7050,21 @@
       <c r="O34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="R34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="S34" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="T34" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
@@ -7212,25 +7226,22 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="O35" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Q35" s="14" t="s">
@@ -7242,7 +7253,9 @@
       <c r="S35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T35" s="4"/>
+      <c r="T35" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -7946,7 +7959,7 @@
       <c r="L39" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="20" t="s">
         <v>194</v>
       </c>
       <c r="Q39" s="4"/>
@@ -22073,7 +22086,7 @@
       <c r="FM117" s="4"/>
       <c r="FN117" s="4"/>
     </row>
-    <row r="118" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:170" ht="66" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="2" t="s">
         <v>144</v>

--- a/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
+++ b/SISTRANS-PROYECTO/enunciados/isis2304-Plantilla Relación (1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/b_riverah_uniandes_edu_co/Documents/D-11/SISTRANS-PROYECTO/enunciados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2CD9B837-76C7-49EA-8C29-3120AFC43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A26A6E-C2D6-403B-A8C8-F7A67B97BBF6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2CD9B837-76C7-49EA-8C29-3120AFC43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C760CE8-BDCA-4951-8061-F7B007D01DEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="30" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="205">
   <si>
     <t>Relación</t>
   </si>
@@ -421,9 +420,6 @@
     <t>TipoPlanConsumo</t>
   </si>
   <si>
-    <t xml:space="preserve"> idTipoPlanConsumo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -716,7 +712,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,7 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +790,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,35 +822,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1134,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FN366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3571,10 +3576,10 @@
         <v>50</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>199</v>
+      <c r="L15" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3765,8 +3770,8 @@
       <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>200</v>
+      <c r="L16" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -3959,7 +3964,7 @@
       <c r="K17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="4"/>
@@ -6449,20 +6454,20 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -6631,17 +6636,17 @@
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>192</v>
+      <c r="H32" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>175</v>
+      <c r="K32" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -6819,44 +6824,44 @@
       <c r="F33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>173</v>
+      <c r="G33" s="15" t="s">
+        <v>172</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>193</v>
+      <c r="H33" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>74</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
-      <c r="Q33" s="21" t="s">
+      <c r="Q33" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R33" s="21" t="s">
+      <c r="R33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S33" s="21" t="s">
+      <c r="S33" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="T33" s="20" t="s">
-        <v>201</v>
+      <c r="T33" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -7026,14 +7031,14 @@
       <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>15</v>
@@ -7053,17 +7058,17 @@
       <c r="P34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>200</v>
+      <c r="Q34" s="15" t="s">
+        <v>199</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="T34" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -7239,21 +7244,21 @@
         <v>18</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T35" s="14" t="s">
+      <c r="T35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="U35" s="4"/>
@@ -7771,8 +7776,8 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="17" t="s">
-        <v>182</v>
+      <c r="J38" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -7951,16 +7956,16 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>194</v>
+      <c r="M39" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -8143,7 +8148,7 @@
       <c r="L40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="15" t="s">
         <v>17</v>
       </c>
       <c r="Q40" s="4"/>
@@ -8317,9 +8322,9 @@
         <v>18</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="16" t="s">
         <v>18</v>
       </c>
       <c r="Q41" s="4"/>
@@ -8651,7 +8656,7 @@
     <row r="43" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -8664,8 +8669,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="17" t="s">
-        <v>186</v>
+      <c r="L43" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -8855,10 +8860,10 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>74</v>
@@ -9237,10 +9242,10 @@
         <v>18</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -9909,7 +9914,7 @@
         <v>74</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>76</v>
@@ -10971,7 +10976,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
@@ -12026,7 +12031,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>15</v>
@@ -12895,7 +12900,7 @@
         <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>16</v>
@@ -15388,16 +15393,16 @@
         <v>112</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
-      <c r="M81" s="14" t="s">
-        <v>195</v>
+      <c r="M81" s="16" t="s">
+        <v>194</v>
       </c>
-      <c r="N81" s="14" t="s">
-        <v>197</v>
+      <c r="N81" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -15588,11 +15593,11 @@
         <v>115</v>
       </c>
       <c r="L82" s="2"/>
-      <c r="M82" s="14" t="s">
-        <v>196</v>
+      <c r="M82" s="16" t="s">
+        <v>195</v>
       </c>
-      <c r="N82" s="14" t="s">
-        <v>198</v>
+      <c r="N82" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -15785,10 +15790,10 @@
       <c r="L83" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M83" s="14" t="s">
+      <c r="M83" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N83" s="14" t="s">
+      <c r="N83" s="16" t="s">
         <v>18</v>
       </c>
       <c r="O83" s="4"/>
@@ -17587,7 +17592,7 @@
         <v>129</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q93" s="10"/>
       <c r="R93" s="4"/>
@@ -17777,7 +17782,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -18128,7 +18133,7 @@
       <c r="FK95" s="4"/>
       <c r="FL95" s="4"/>
     </row>
-    <row r="96" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -18143,9 +18148,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
-      <c r="O96" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -18494,7 +18497,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
@@ -18655,20 +18658,20 @@
     <row r="99" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="4"/>
@@ -18850,7 +18853,7 @@
         <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -19545,22 +19548,22 @@
     <row r="104" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -19725,14 +19728,14 @@
     <row r="105" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>125</v>
@@ -19742,7 +19745,7 @@
         <v>117</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="6" t="s">
@@ -19751,7 +19754,7 @@
       <c r="L105" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M105" s="16"/>
+      <c r="M105" s="13"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -19916,18 +19919,18 @@
         <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>93</v>
@@ -19937,9 +19940,9 @@
         <v>103</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
-      <c r="M106" s="16"/>
+      <c r="M106" s="13"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -20127,7 +20130,7 @@
       <c r="L107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M107" s="16"/>
+      <c r="M107" s="13"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -20633,22 +20636,22 @@
     <row r="110" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="12"/>
@@ -20839,7 +20842,7 @@
       <c r="L111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M111" s="16"/>
+      <c r="M111" s="13"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -21001,33 +21004,33 @@
     <row r="112" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L112" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M112" s="16"/>
+      <c r="M112" s="13"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -21215,7 +21218,7 @@
       <c r="L113" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M113" s="16"/>
+      <c r="M113" s="13"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -21721,22 +21724,22 @@
     <row r="116" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="12"/>
@@ -21904,7 +21907,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="6" t="s">
@@ -21925,9 +21928,9 @@
         <v>66</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
-      <c r="M117" s="16"/>
+      <c r="M117" s="13"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -22089,33 +22092,33 @@
     <row r="118" spans="1:170" ht="66" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
-      <c r="M118" s="16"/>
+      <c r="M118" s="13"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -22303,7 +22306,7 @@
       <c r="L119" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M119" s="16"/>
+      <c r="M119" s="13"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -22809,12 +22812,12 @@
     <row r="122" spans="1:170" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="10"/>
@@ -22988,11 +22991,11 @@
         <v>66</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>40</v>
@@ -23165,17 +23168,17 @@
     <row r="124" spans="1:170" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="4"/>
